--- a/natmiOut/OldD0/LR-pairs_lrc2p/App-Cav1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/App-Cav1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>80.9462580763919</v>
+        <v>82.83048866666665</v>
       </c>
       <c r="H2">
-        <v>80.9462580763919</v>
+        <v>248.491466</v>
       </c>
       <c r="I2">
-        <v>0.3130569481982918</v>
+        <v>0.3167437020391103</v>
       </c>
       <c r="J2">
-        <v>0.3130569481982918</v>
+        <v>0.3167437020391103</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>109.486796649463</v>
+        <v>409.6166503333334</v>
       </c>
       <c r="N2">
-        <v>109.486796649463</v>
+        <v>1228.849951</v>
       </c>
       <c r="O2">
-        <v>0.3129211090865427</v>
+        <v>0.6234125531262766</v>
       </c>
       <c r="P2">
-        <v>0.3129211090865427</v>
+        <v>0.6234125531262766</v>
       </c>
       <c r="Q2">
-        <v>8862.546497544872</v>
+        <v>33928.74731311313</v>
       </c>
       <c r="R2">
-        <v>8862.546497544872</v>
+        <v>305358.7258180182</v>
       </c>
       <c r="S2">
-        <v>0.09796212743745784</v>
+        <v>0.1974619999748704</v>
       </c>
       <c r="T2">
-        <v>0.09796212743745784</v>
+        <v>0.1974619999748704</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>80.9462580763919</v>
+        <v>82.83048866666665</v>
       </c>
       <c r="H3">
-        <v>80.9462580763919</v>
+        <v>248.491466</v>
       </c>
       <c r="I3">
-        <v>0.3130569481982918</v>
+        <v>0.3167437020391103</v>
       </c>
       <c r="J3">
-        <v>0.3130569481982918</v>
+        <v>0.3167437020391103</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>56.2248386702937</v>
+        <v>56.495384</v>
       </c>
       <c r="N3">
-        <v>56.2248386702937</v>
+        <v>169.486152</v>
       </c>
       <c r="O3">
-        <v>0.1606946171897754</v>
+        <v>0.08598266586728959</v>
       </c>
       <c r="P3">
-        <v>0.1606946171897754</v>
+        <v>0.08598266586728959</v>
       </c>
       <c r="Q3">
-        <v>4551.190301309093</v>
+        <v>4679.540264130981</v>
       </c>
       <c r="R3">
-        <v>4551.190301309093</v>
+        <v>42115.86237717883</v>
       </c>
       <c r="S3">
-        <v>0.05030656644932385</v>
+        <v>0.02723446789799715</v>
       </c>
       <c r="T3">
-        <v>0.05030656644932385</v>
+        <v>0.02723446789799716</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>80.9462580763919</v>
+        <v>82.83048866666665</v>
       </c>
       <c r="H4">
-        <v>80.9462580763919</v>
+        <v>248.491466</v>
       </c>
       <c r="I4">
-        <v>0.3130569481982918</v>
+        <v>0.3167437020391103</v>
       </c>
       <c r="J4">
-        <v>0.3130569481982918</v>
+        <v>0.3167437020391103</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>184.174625051329</v>
+        <v>190.9434713333333</v>
       </c>
       <c r="N4">
-        <v>184.174625051329</v>
+        <v>572.830414</v>
       </c>
       <c r="O4">
-        <v>0.5263842737236819</v>
+        <v>0.2906047810064339</v>
       </c>
       <c r="P4">
-        <v>0.5263842737236819</v>
+        <v>0.2906047810064338</v>
       </c>
       <c r="Q4">
-        <v>14908.24673052759</v>
+        <v>15815.94103824966</v>
       </c>
       <c r="R4">
-        <v>14908.24673052759</v>
+        <v>142343.4693442469</v>
       </c>
       <c r="S4">
-        <v>0.1647882543115101</v>
+        <v>0.09204723416624279</v>
       </c>
       <c r="T4">
-        <v>0.1647882543115101</v>
+        <v>0.09204723416624279</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>152.03098384029</v>
+        <v>152.851481</v>
       </c>
       <c r="H5">
-        <v>152.03098384029</v>
+        <v>458.554443</v>
       </c>
       <c r="I5">
-        <v>0.5879747497124388</v>
+        <v>0.5845039034954311</v>
       </c>
       <c r="J5">
-        <v>0.5879747497124388</v>
+        <v>0.5845039034954312</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>109.486796649463</v>
+        <v>409.6166503333334</v>
       </c>
       <c r="N5">
-        <v>109.486796649463</v>
+        <v>1228.849951</v>
       </c>
       <c r="O5">
-        <v>0.3129211090865427</v>
+        <v>0.6234125531262766</v>
       </c>
       <c r="P5">
-        <v>0.3129211090865427</v>
+        <v>0.6234125531262766</v>
       </c>
       <c r="Q5">
-        <v>16645.38541213963</v>
+        <v>62610.51164570916</v>
       </c>
       <c r="R5">
-        <v>16645.38541213963</v>
+        <v>563494.6048113824</v>
       </c>
       <c r="S5">
-        <v>0.1839897107948987</v>
+        <v>0.3643870707903615</v>
       </c>
       <c r="T5">
-        <v>0.1839897107948987</v>
+        <v>0.3643870707903616</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>152.03098384029</v>
+        <v>152.851481</v>
       </c>
       <c r="H6">
-        <v>152.03098384029</v>
+        <v>458.554443</v>
       </c>
       <c r="I6">
-        <v>0.5879747497124388</v>
+        <v>0.5845039034954311</v>
       </c>
       <c r="J6">
-        <v>0.5879747497124388</v>
+        <v>0.5845039034954312</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>56.2248386702937</v>
+        <v>56.495384</v>
       </c>
       <c r="N6">
-        <v>56.2248386702937</v>
+        <v>169.486152</v>
       </c>
       <c r="O6">
-        <v>0.1606946171897754</v>
+        <v>0.08598266586728959</v>
       </c>
       <c r="P6">
-        <v>0.1606946171897754</v>
+        <v>0.08598266586728959</v>
       </c>
       <c r="Q6">
-        <v>8547.917539306332</v>
+        <v>8635.403114063705</v>
       </c>
       <c r="R6">
-        <v>8547.917539306332</v>
+        <v>77718.62802657334</v>
       </c>
       <c r="S6">
-        <v>0.09448437732229435</v>
+        <v>0.05025720383237414</v>
       </c>
       <c r="T6">
-        <v>0.09448437732229435</v>
+        <v>0.05025720383237414</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>152.03098384029</v>
+        <v>152.851481</v>
       </c>
       <c r="H7">
-        <v>152.03098384029</v>
+        <v>458.554443</v>
       </c>
       <c r="I7">
-        <v>0.5879747497124388</v>
+        <v>0.5845039034954311</v>
       </c>
       <c r="J7">
-        <v>0.5879747497124388</v>
+        <v>0.5845039034954312</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>184.174625051329</v>
+        <v>190.9434713333333</v>
       </c>
       <c r="N7">
-        <v>184.174625051329</v>
+        <v>572.830414</v>
       </c>
       <c r="O7">
-        <v>0.5263842737236819</v>
+        <v>0.2906047810064339</v>
       </c>
       <c r="P7">
-        <v>0.5263842737236819</v>
+        <v>0.2906047810064338</v>
       </c>
       <c r="Q7">
-        <v>28000.24944497007</v>
+        <v>29185.99238058105</v>
       </c>
       <c r="R7">
-        <v>28000.24944497007</v>
+        <v>262673.9314252294</v>
       </c>
       <c r="S7">
-        <v>0.3095006615952458</v>
+        <v>0.1698596288726955</v>
       </c>
       <c r="T7">
-        <v>0.3095006615952458</v>
+        <v>0.1698596288726955</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>25.5899566146222</v>
+        <v>25.824378</v>
       </c>
       <c r="H8">
-        <v>25.5899566146222</v>
+        <v>77.47313399999999</v>
       </c>
       <c r="I8">
-        <v>0.09896830208926941</v>
+        <v>0.09875239446545848</v>
       </c>
       <c r="J8">
-        <v>0.09896830208926941</v>
+        <v>0.0987523944654585</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>109.486796649463</v>
+        <v>409.6166503333334</v>
       </c>
       <c r="N8">
-        <v>109.486796649463</v>
+        <v>1228.849951</v>
       </c>
       <c r="O8">
-        <v>0.3129211090865427</v>
+        <v>0.6234125531262766</v>
       </c>
       <c r="P8">
-        <v>0.3129211090865427</v>
+        <v>0.6234125531262766</v>
       </c>
       <c r="Q8">
-        <v>2801.762376133721</v>
+        <v>10578.09521330183</v>
       </c>
       <c r="R8">
-        <v>2801.762376133721</v>
+        <v>95202.85691971643</v>
       </c>
       <c r="S8">
-        <v>0.03096927085418619</v>
+        <v>0.06156348236104466</v>
       </c>
       <c r="T8">
-        <v>0.03096927085418619</v>
+        <v>0.06156348236104468</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>25.5899566146222</v>
+        <v>25.824378</v>
       </c>
       <c r="H9">
-        <v>25.5899566146222</v>
+        <v>77.47313399999999</v>
       </c>
       <c r="I9">
-        <v>0.09896830208926941</v>
+        <v>0.09875239446545848</v>
       </c>
       <c r="J9">
-        <v>0.09896830208926941</v>
+        <v>0.0987523944654585</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.2248386702937</v>
+        <v>56.495384</v>
       </c>
       <c r="N9">
-        <v>56.2248386702937</v>
+        <v>169.486152</v>
       </c>
       <c r="O9">
-        <v>0.1606946171897754</v>
+        <v>0.08598266586728959</v>
       </c>
       <c r="P9">
-        <v>0.1606946171897754</v>
+        <v>0.08598266586728959</v>
       </c>
       <c r="Q9">
-        <v>1438.791182236948</v>
+        <v>1458.958151671152</v>
       </c>
       <c r="R9">
-        <v>1438.791182236948</v>
+        <v>13130.62336504037</v>
       </c>
       <c r="S9">
-        <v>0.0159036734181572</v>
+        <v>0.008490994136918294</v>
       </c>
       <c r="T9">
-        <v>0.0159036734181572</v>
+        <v>0.008490994136918296</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>25.5899566146222</v>
+        <v>25.824378</v>
       </c>
       <c r="H10">
-        <v>25.5899566146222</v>
+        <v>77.47313399999999</v>
       </c>
       <c r="I10">
-        <v>0.09896830208926941</v>
+        <v>0.09875239446545848</v>
       </c>
       <c r="J10">
-        <v>0.09896830208926941</v>
+        <v>0.0987523944654585</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>184.174625051329</v>
+        <v>190.9434713333333</v>
       </c>
       <c r="N10">
-        <v>184.174625051329</v>
+        <v>572.830414</v>
       </c>
       <c r="O10">
-        <v>0.5263842737236819</v>
+        <v>0.2906047810064339</v>
       </c>
       <c r="P10">
-        <v>0.5263842737236819</v>
+        <v>0.2906047810064338</v>
       </c>
       <c r="Q10">
-        <v>4713.02066457782</v>
+        <v>4930.996380344163</v>
       </c>
       <c r="R10">
-        <v>4713.02066457782</v>
+        <v>44378.96742309747</v>
       </c>
       <c r="S10">
-        <v>0.05209535781692603</v>
+        <v>0.02869791796749554</v>
       </c>
       <c r="T10">
-        <v>0.05209535781692603</v>
+        <v>0.02869791796749553</v>
       </c>
     </row>
   </sheetData>
